--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\一些项目\yixianbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3115FC-BC19-485D-84C6-9B2A982534B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB4DB2-4AB8-4E06-AA09-E092AEFDB9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -397,6 +397,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\一些项目\yixianbi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB4DB2-4AB8-4E06-AA09-E092AEFDB9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034C1550-A062-4EE9-92B6-686EC1454E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B6" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -397,22 +397,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
